--- a/biology/Botanique/Banksia_candolleana/Banksia_candolleana.xlsx
+++ b/biology/Botanique/Banksia_candolleana/Banksia_candolleana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Banksia candolleana est une espèce de plante buissonnante du genre Banksia. On le trouve dans des plaines sableuses au nord de Gingin, en Australie-Occidentale.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Banksia candolleana mesure 0,5 à 1,3 m de haut et 2,5 m de large. Ces feuilles linéaires mesurent 15 à 40 cm de long et 0,6 à 2 cm de large. Les feuilles sont vertes et brillantes avec des bords dentés. Les inflorescences apparaissent entre avril et juin (de l'automne à l'hiver) et sont jaune doré. De forme ovoïde, elles mesurent 5,5 à 7,5 cm de large. Les fleurs matures laissent place à 1 à 5 follicules gris[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Banksia candolleana mesure 0,5 à 1,3 m de haut et 2,5 m de large. Ces feuilles linéaires mesurent 15 à 40 cm de long et 0,6 à 2 cm de large. Les feuilles sont vertes et brillantes avec des bords dentés. Les inflorescences apparaissent entre avril et juin (de l'automne à l'hiver) et sont jaune doré. De forme ovoïde, elles mesurent 5,5 à 7,5 cm de large. Les fleurs matures laissent place à 1 à 5 follicules gris.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Banksia candolleana est décrit pour la première fois par le botaniste suisse Carl Meissner en 1855, après avoir été collecté par James Drummond. Son nom spécifique a été choisi en l'honneur de Augustin Pyramus de Candolle, compatriote de Meissner.
 </t>
@@ -573,9 +589,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Banksia candolleana se rencontre à Arrowsmith jusqu'à Gingin au sud, dans les plaines sableuses du nord du Perth, où la pluviométrie annuelle est de 600 à 700 mm[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Banksia candolleana se rencontre à Arrowsmith jusqu'à Gingin au sud, dans les plaines sableuses du nord du Perth, où la pluviométrie annuelle est de 600 à 700 mm.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Banksia candolleana peut se régénérer à partir de son lignotuber après un feu de broussaille[1]. Certains buissons ont été estimés à plus de 1000 ans[2]. Sminthopsis granulipes a été observé visitant les fleurs, mais on ne sait pas si c'est un pollinisateur efficace[3]. Les fourmis et les abeilles visitent également les inflorescences.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Banksia candolleana peut se régénérer à partir de son lignotuber après un feu de broussaille. Certains buissons ont été estimés à plus de 1000 ans. Sminthopsis granulipes a été observé visitant les fleurs, mais on ne sait pas si c'est un pollinisateur efficace. Les fourmis et les abeilles visitent également les inflorescences.
 </t>
         </is>
       </c>
